--- a/_resource/excel/R-任务-执行输出-(框架定义,策划填写).xlsx
+++ b/_resource/excel/R-任务-执行输出-(框架定义,策划填写).xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="execute" sheetId="2" r:id="rId1"/>
+    <sheet name="taskexecute" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -234,7 +234,7 @@
     <t>ExecuteParam4(string)</t>
   </si>
   <si>
-    <t>#execute</t>
+    <t>#taskexecute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,16 +722,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="7" customWidth="1"/>
-    <col min="6" max="7" width="19.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="6" customWidth="1"/>
     <col min="10" max="11" width="17.125" style="6" customWidth="1"/>
@@ -1680,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
